--- a/4x6v6/物料-BOM/zh_CN/工具清单.xlsx
+++ b/4x6v6/物料-BOM/zh_CN/工具清单.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>名称</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>内六角螺丝刀</t>
+  </si>
+  <si>
+    <t>DAP-Link</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.880000000000001"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="19.28125"/>
     <col customWidth="1" min="2" max="2" style="1" width="13.57421875"/>
@@ -689,7 +692,7 @@
       <c r="B3" s="1">
         <v>130</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -706,7 +709,7 @@
       <c r="B4" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
@@ -725,7 +728,7 @@
       <c r="B5" s="1">
         <v>6.5999999999999996</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
@@ -742,7 +745,7 @@
       <c r="B6" s="1">
         <v>2.5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
@@ -841,45 +844,52 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.85">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" s="1" customFormat="1" ht="16.5">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5">
+    <row r="13" s="1" customFormat="1" ht="13.85">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <f>SUM(B3:B12)</f>
-        <v>175.69999999999999</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.85">
+    <row r="14" s="1" customFormat="1" ht="16.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <f>SUM(B3:B13)</f>
+        <v>203.69999999999999</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" ht="13.85">
+    <row r="15" s="1" customFormat="1" ht="13.85">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -890,7 +900,7 @@
       <c r="H15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.85">
+    <row r="16" ht="13.85">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -899,8 +909,6 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="13.85">
@@ -916,14 +924,18 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" ht="13.85">
+    <row r="18" s="1" customFormat="1" ht="13.85">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" ht="13.85">
       <c r="A19" s="1"/>
@@ -931,10 +943,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="K19" s="1"/>
     </row>
     <row r="20" ht="13.85">
       <c r="A20" s="1"/>
@@ -942,8 +952,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" ht="13.85">
       <c r="A21" s="1"/>
@@ -954,23 +966,24 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.85">
+    <row r="22" ht="13.85">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" ht="13.85">
+    <row r="23" s="1" customFormat="1" ht="13.85">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" ht="13.85">
       <c r="A24" s="1"/>
@@ -979,7 +992,6 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
     </row>
     <row r="25" ht="13.85">
       <c r="A25" s="1"/>
@@ -997,15 +1009,17 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" ht="13.85">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" ht="13.85">
-      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1023,10 +1037,17 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" ht="13.85">
       <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
+    </row>
+    <row r="32" ht="13.85">
+      <c r="B32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/4x6v6/物料-BOM/zh_CN/工具清单.xlsx
+++ b/4x6v6/物料-BOM/zh_CN/工具清单.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>名称</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>DAP-Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY-SA 4.0</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +861,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="13.85">
@@ -889,11 +892,13 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.85">
+    <row r="15" s="1" customFormat="1" ht="33">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
